--- a/output/nswhealthitocpractitioner.xlsx
+++ b/output/nswhealthitocpractitioner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4147" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4147" uniqueCount="406">
   <si>
     <t>Path</t>
   </si>
@@ -798,6 +798,9 @@
   </si>
   <si>
     <t>http://ns.health.nsw.gov.au/fhir/ehealth/itoc/id/stafflinkid/1.0</t>
+  </si>
+  <si>
+    <t>The Stafflink System identifier</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -9213,7 +9216,7 @@
         <v>52</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>186</v>
@@ -9518,7 +9521,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9541,70 +9544,70 @@
         <v>51</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Q73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Q73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9622,18 +9625,18 @@
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9656,19 +9659,19 @@
         <v>51</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9717,7 +9720,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9732,13 +9735,13 @@
         <v>62</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>40</v>
@@ -9746,7 +9749,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9769,19 +9772,19 @@
         <v>51</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -9830,7 +9833,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9845,13 +9848,13 @@
         <v>62</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>40</v>
@@ -9859,7 +9862,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9882,19 +9885,19 @@
         <v>51</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9943,7 +9946,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9958,13 +9961,13 @@
         <v>62</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>40</v>
@@ -9972,7 +9975,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9998,14 +10001,14 @@
         <v>70</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -10033,10 +10036,10 @@
         <v>137</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>40</v>
@@ -10054,7 +10057,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10069,13 +10072,13 @@
         <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>40</v>
@@ -10083,7 +10086,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10106,17 +10109,17 @@
         <v>51</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -10165,7 +10168,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10180,13 +10183,13 @@
         <v>62</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>40</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10217,17 +10220,17 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10276,7 +10279,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10294,10 +10297,10 @@
         <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>40</v>
@@ -10305,7 +10308,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10328,13 +10331,13 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10373,7 +10376,7 @@
         <v>40</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB80" s="2"/>
       <c r="AC80" t="s" s="2">
@@ -10383,7 +10386,7 @@
         <v>113</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10398,13 +10401,13 @@
         <v>62</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>40</v>
@@ -10412,7 +10415,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10521,7 +10524,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10632,11 +10635,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10658,10 +10661,10 @@
         <v>96</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>99</v>
@@ -10716,7 +10719,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10745,7 +10748,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10771,14 +10774,14 @@
         <v>108</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>40</v>
@@ -10827,7 +10830,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10845,7 +10848,7 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10856,7 +10859,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10882,10 +10885,10 @@
         <v>143</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10912,13 +10915,13 @@
         <v>40</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>40</v>
@@ -10936,7 +10939,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>50</v>
@@ -10954,10 +10957,10 @@
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>40</v>
@@ -10965,7 +10968,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10991,14 +10994,14 @@
         <v>195</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11047,7 +11050,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11065,10 +11068,10 @@
         <v>40</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
@@ -11076,7 +11079,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11102,10 +11105,10 @@
         <v>203</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11156,7 +11159,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11174,7 +11177,7 @@
         <v>40</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>40</v>
@@ -11185,7 +11188,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>231</v>
@@ -11210,13 +11213,13 @@
         <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11267,7 +11270,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11282,13 +11285,13 @@
         <v>62</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>40</v>
@@ -11296,7 +11299,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11405,7 +11408,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11516,11 +11519,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11542,10 +11545,10 @@
         <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>99</v>
@@ -11600,7 +11603,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11629,7 +11632,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11658,11 +11661,11 @@
         <v>237</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>40</v>
@@ -11711,7 +11714,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -11723,13 +11726,13 @@
         <v>40</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>40</v>
@@ -11740,7 +11743,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11849,7 +11852,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11960,7 +11963,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12073,7 +12076,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12099,7 +12102,7 @@
         <v>143</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>145</v>
@@ -12186,7 +12189,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12295,7 +12298,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12406,7 +12409,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12519,7 +12522,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12632,7 +12635,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12658,7 +12661,7 @@
         <v>64</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>219</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12771,7 +12774,7 @@
         <v>52</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>186</v>
@@ -12856,7 +12859,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12965,7 +12968,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13076,7 +13079,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13102,10 +13105,10 @@
         <v>143</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13132,13 +13135,13 @@
         <v>40</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>40</v>
@@ -13156,7 +13159,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>50</v>
@@ -13174,10 +13177,10 @@
         <v>40</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>40</v>
@@ -13185,7 +13188,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13294,7 +13297,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13405,7 +13408,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13518,7 +13521,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13544,7 +13547,7 @@
         <v>52</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>166</v>
@@ -13631,7 +13634,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13657,14 +13660,14 @@
         <v>195</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>40</v>
@@ -13713,7 +13716,7 @@
         <v>40</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
@@ -13731,10 +13734,10 @@
         <v>40</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>40</v>
@@ -13742,7 +13745,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13768,10 +13771,10 @@
         <v>203</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -13822,7 +13825,7 @@
         <v>40</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -13840,7 +13843,7 @@
         <v>40</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>40</v>
@@ -13851,7 +13854,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13960,7 +13963,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14071,7 +14074,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14097,13 +14100,13 @@
         <v>52</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -14153,7 +14156,7 @@
         <v>40</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -14162,7 +14165,7 @@
         <v>50</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>62</v>
@@ -14182,7 +14185,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14208,13 +14211,13 @@
         <v>64</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -14243,10 +14246,10 @@
         <v>244</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>40</v>
@@ -14264,7 +14267,7 @@
         <v>40</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -14293,7 +14296,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14319,13 +14322,13 @@
         <v>108</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -14375,7 +14378,7 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -14393,7 +14396,7 @@
         <v>40</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>40</v>
@@ -14404,7 +14407,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14430,13 +14433,13 @@
         <v>52</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -14444,7 +14447,7 @@
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R117" t="s" s="2">
         <v>40</v>
@@ -14486,7 +14489,7 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -14515,7 +14518,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14541,16 +14544,16 @@
         <v>143</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>40</v>
@@ -14579,7 +14582,7 @@
       </c>
       <c r="X118" s="2"/>
       <c r="Y118" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>40</v>
@@ -14597,7 +14600,7 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>
@@ -14612,13 +14615,13 @@
         <v>62</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>40</v>
